--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_12_09 11_25_18.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_12_09 11_25_18.xlsx
@@ -4911,13 +4911,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B42C26B-EA31-45D1-ADC2-F93488F48DB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA955B3C-64E3-437C-8D57-FB7B909C5157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6CCBA7-8782-4B34-B51D-3343CE142722}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C26937E5-47CA-4131-A937-80CA81999023}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CECF9937-A439-40A8-B962-92B41DA66383}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D96899F-C56C-4B04-AB3C-98290C9AFDCA}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_12_09 11_25_18.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_12_09 11_25_18.xlsx
@@ -4911,13 +4911,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA955B3C-64E3-437C-8D57-FB7B909C5157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D702D85-84CF-489C-A622-C8BC0333180F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C26937E5-47CA-4131-A937-80CA81999023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1986D612-17E3-4C8A-9CD2-007CE879AF59}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D96899F-C56C-4B04-AB3C-98290C9AFDCA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CBC389D-F624-4750-886A-6AA8F1D5758E}"/>
 </file>